--- a/ShortCuts/Common/Minda Live accounts.xlsx
+++ b/ShortCuts/Common/Minda Live accounts.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hogsback" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sarah" sheetId="2" r:id="rId2"/>
+    <sheet name="olivia06" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="15">
   <si>
     <t>Hogsback</t>
   </si>
@@ -44,12 +44,30 @@
   <si>
     <t>Test02</t>
   </si>
+  <si>
+    <t>Test01</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>BCCY</t>
+  </si>
+  <si>
+    <t>ANML_KEY</t>
+  </si>
+  <si>
+    <t>olivia06</t>
+  </si>
+  <si>
+    <t>CBDC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +75,324 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -74,15 +400,211 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,24 +3211,2703 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C332"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5007318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>19298615</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>21955073</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>22013481</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>23152065</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>23152051</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>23152071</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>23152075</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>23152080</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>23152082</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>23152083</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>23152089</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>23152085</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>23152092</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>23152057</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>24050012</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>24050010</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>23881570</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>24050016</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>24050021</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>24050020</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>24050022</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>23881571</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>24050027</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>24050034</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>23881573</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>23881574</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>23881575</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>23881577</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>25036087</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>25036084</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>25036095</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>25154368</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>25154371</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>25154372</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>25154375</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>24978500</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <v>24978502</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>26412788</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <v>26412791</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>26412795</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>26412793</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3">
+        <v>26412799</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>26412800</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>26412807</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
+        <v>26412801</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <v>26412803</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>26412806</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="3">
+        <v>26412811</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>26412815</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3">
+        <v>26271763</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3">
+        <v>26271762</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="3">
+        <v>26271764</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="3">
+        <v>24050011</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="3">
+        <v>27584167</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>27584173</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>27584157</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="3">
+        <v>27584177</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>27669785</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>27669789</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <v>27669794</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>27669792</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>27669798</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="3">
+        <v>27669797</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>27833345</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="3">
+        <v>27833346</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="3">
+        <v>27833348</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>27833354</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="3">
+        <v>27833353</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>27584161</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="3">
+        <v>27584168</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <v>27833352</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>28817925</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="3">
+        <v>28817924</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="3">
+        <v>28817929</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="3">
+        <v>28817928</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="3">
+        <v>28817930</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="3">
+        <v>28817932</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="3">
+        <v>28817931</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="3">
+        <v>28817927</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="3">
+        <v>29132009</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <v>29132015</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="3">
+        <v>29132017</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="3">
+        <v>29132018</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="3">
+        <v>29132021</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="3">
+        <v>29132022</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="3">
+        <v>29132025</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="3">
+        <v>29132024</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="3">
+        <v>29132026</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="3">
+        <v>29132027</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="3">
+        <v>29132030</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="3">
+        <v>29132031</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <v>29132033</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="3">
+        <v>29132035</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="3">
+        <v>29132038</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>28817919</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
+        <v>30220183</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>30220184</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>30220186</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>30220194</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>30220191</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>30220173</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>30220189</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>30220188</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>30220198</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>30220199</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>30220201</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>30220206</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>30220205</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>30220210</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>30220211</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>30220175</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>30220212</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>30220213</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>30220214</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>30220217</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <v>30220176</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="3">
+        <v>31368099</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <v>30473385</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <v>30220178</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>30220179</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <v>30220182</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <v>31368098</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <v>25310492</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>31484752</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <v>31742602</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="3">
+        <v>32039025</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <v>32039019</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>31744154</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <v>31744152</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>31744150</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>31744148</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
+        <v>31744149</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="3">
+        <v>31744147</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="3">
+        <v>31744144</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="3">
+        <v>31744143</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="3">
+        <v>31742598</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="3">
+        <v>31742603</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="3">
+        <v>31742601</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="3">
+        <v>31600479</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="3">
+        <v>31600476</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="3">
+        <v>31600475</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="3">
+        <v>31600478</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="3">
+        <v>31600477</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="3">
+        <v>31600472</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="3">
+        <v>31600471</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="3">
+        <v>31600470</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="3">
+        <v>31600468</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="3">
+        <v>31600469</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="3">
+        <v>31600467</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="3">
+        <v>31600466</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="3">
+        <v>31600463</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="3">
+        <v>31600462</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="3">
+        <v>31600460</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="3">
+        <v>31600459</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="3">
+        <v>31600455</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="3">
+        <v>31600456</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="3">
+        <v>31600453</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="3">
+        <v>31600454</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="3">
+        <v>31600452</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="3">
+        <v>31600451</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="3">
+        <v>31600449</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="3">
+        <v>31484755</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="3">
+        <v>33564721</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="3">
+        <v>33564720</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="3">
+        <v>33564712</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="3">
+        <v>33564718</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="3">
+        <v>33564711</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="3">
+        <v>33564717</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="3">
+        <v>33564714</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="3">
+        <v>33564713</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="3">
+        <v>33565739</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="3">
+        <v>33565733</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="3">
+        <v>33565732</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="3">
+        <v>33565737</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="3">
+        <v>33564710</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="3">
+        <v>33155847</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="3">
+        <v>33155846</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="3">
+        <v>33155849</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="3">
+        <v>33155839</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="3">
+        <v>33155842</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="3">
+        <v>33155837</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="3">
+        <v>33155838</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="3">
+        <v>33047803</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="3">
+        <v>33047805</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="3">
+        <v>33047802</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="3">
+        <v>33047799</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="3">
+        <v>33047804</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="3">
+        <v>33047798</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="3">
+        <v>33047801</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="3">
+        <v>33047794</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="3">
+        <v>33047793</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="3">
+        <v>33001991</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="3">
+        <v>33566229</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="3">
+        <v>33001990</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="3">
+        <v>32995500</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="3">
+        <v>32995499</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="3">
+        <v>32989619</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="3">
+        <v>32989620</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="3">
+        <v>32989618</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="3">
+        <v>34186256</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="3">
+        <v>36637246</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="3">
+        <v>36637295</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="3">
+        <v>36637358</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="3">
+        <v>34802848</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="3">
+        <v>34802846</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="3">
+        <v>34802842</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="3">
+        <v>34802839</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="3">
+        <v>34802847</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="3">
+        <v>34802843</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="3">
+        <v>34802836</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="3">
+        <v>34802840</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="3">
+        <v>34802841</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="3">
+        <v>34802838</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="3">
+        <v>34802832</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="3">
+        <v>34802833</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="3">
+        <v>34802829</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="3">
+        <v>34802828</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="3">
+        <v>34802830</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="3">
+        <v>34802826</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="3">
+        <v>34802823</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="3">
+        <v>34802825</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="3">
+        <v>34802821</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="3">
+        <v>34801822</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="3">
+        <v>34801821</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="3">
+        <v>34801823</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="3">
+        <v>34801812</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="3">
+        <v>34801815</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="3">
+        <v>34801813</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="3">
+        <v>34801814</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="3">
+        <v>34801816</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="3">
+        <v>34801806</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="3">
+        <v>34801808</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="3">
+        <v>34801807</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="3">
+        <v>34801803</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="3">
+        <v>34801804</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="3">
+        <v>34801802</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="3">
+        <v>34801797</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="3">
+        <v>34801799</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="3">
+        <v>34801796</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="3">
+        <v>34801791</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="3">
+        <v>34803422</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="3">
+        <v>34801793</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="3">
+        <v>34801792</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="3">
+        <v>34801795</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="3">
+        <v>34801790</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="3">
+        <v>34478301</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="3">
+        <v>34478300</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="3">
+        <v>34478299</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="3">
+        <v>34983459</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="3">
+        <v>34802845</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="3">
+        <v>23152058</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="3">
+        <v>33001989</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="3">
+        <v>30220215</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="3">
+        <v>32668701</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="3">
+        <v>34277837</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="3">
+        <v>34277844</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="3">
+        <v>34277843</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="3">
+        <v>34801817</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" s="3">
+        <v>36069116</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" s="3">
+        <v>36069118</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="3">
+        <v>36069119</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="3">
+        <v>37246055</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="3">
+        <v>36028108</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="3">
+        <v>36028118</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" s="3">
+        <v>36069917</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" s="3">
+        <v>36028121</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" s="3">
+        <v>36028122</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" s="3">
+        <v>34478298</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="3">
+        <v>34802820</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277" s="3">
+        <v>36028093</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="3">
+        <v>36028094</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279" s="3">
+        <v>36028095</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280" s="3">
+        <v>36028100</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281" s="3">
+        <v>36028102</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282" s="3">
+        <v>36028104</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="3">
+        <v>37246056</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284" s="3">
+        <v>34801798</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B285" s="3">
+        <v>37245892</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286" s="3">
+        <v>36028097</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287" s="3">
+        <v>36028110</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288" s="3">
+        <v>36028117</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289" s="3">
+        <v>36028123</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290" s="3">
+        <v>37245994</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291" s="3">
+        <v>32995501</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292" s="3">
+        <v>36028112</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293" s="3">
+        <v>36069124</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294" s="3">
+        <v>36028096</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295" s="3">
+        <v>36028109</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296" s="3">
+        <v>36028111</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297" s="3">
+        <v>36069749</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298" s="3">
+        <v>36069918</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299" s="3">
+        <v>36069919</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300" s="3">
+        <v>36069120</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301" s="3">
+        <v>36028105</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302" s="3">
+        <v>36028115</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B303" s="3">
+        <v>37245939</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304" s="3">
+        <v>36637298</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305" s="3">
+        <v>36028098</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306" s="3">
+        <v>36028116</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307" s="3">
+        <v>36072701</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308" s="3">
+        <v>36069121</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309" s="3">
+        <v>36464893</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310" s="3">
+        <v>37245946</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311" s="3">
+        <v>37245891</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312" s="3">
+        <v>36028092</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B313" s="3">
+        <v>36028103</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B314" s="3">
+        <v>36028106</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315" s="3">
+        <v>36028107</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316" s="3">
+        <v>36028113</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317" s="3">
+        <v>36028114</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318" s="3">
+        <v>36093444</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319" s="3">
+        <v>36069125</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320" s="3">
+        <v>36028099</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" s="3">
+        <v>36028119</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" s="3">
+        <v>36028120</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323" s="3">
+        <v>36072700</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324" s="3">
+        <v>36069114</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" s="3">
+        <v>36069115</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" s="3">
+        <v>36069123</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B327" s="3">
+        <v>36464892</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B328" s="3">
+        <v>37244755</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B329" s="3">
+        <v>37245993</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B330" s="3">
+        <v>37245947</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B331" s="3">
+        <v>37245995</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B332" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5013781</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>